--- a/Cleaned_DataSets/CA3 parameters for PCA_Clean.xlsx
+++ b/Cleaned_DataSets/CA3 parameters for PCA_Clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dennis.tabuena\Dropbox (Gladstone)\_Projects\1_Hyper+Crisper\Cluster Analysis\Cleaned_DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50786879-8746-4DCE-8932-7B2E89EFEADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B75642-9071-46D2-88D3-2129DB33EFDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{F8DBF2A4-ADA9-3F4A-9A93-E07330314B15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{F8DBF2A4-ADA9-3F4A-9A93-E07330314B15}"/>
   </bookViews>
   <sheets>
     <sheet name="apoE4-KI 7-9mo" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="160">
   <si>
     <t>Cm</t>
   </si>
@@ -516,13 +507,16 @@
   </si>
   <si>
     <t>Accomodation</t>
+  </si>
+  <si>
+    <t>20200218_00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -681,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -726,6 +720,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,14 +1042,14 @@
       <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="17" max="17" width="11"/>
     <col min="19" max="19" width="13.125" customWidth="1"/>
     <col min="20" max="20" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1102,7 +1097,7 @@
       </c>
       <c r="R1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1150,7 +1145,7 @@
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1198,7 +1193,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1246,7 +1241,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -1294,7 +1289,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1342,7 +1337,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1390,7 +1385,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -1438,7 +1433,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -1486,7 +1481,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -1534,7 +1529,7 @@
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -1582,7 +1577,7 @@
       </c>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -1630,7 +1625,7 @@
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1678,7 +1673,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1726,7 +1721,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1774,7 +1769,7 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1822,7 +1817,7 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1870,7 +1865,7 @@
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1918,7 +1913,7 @@
       </c>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1967,7 +1962,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2015,7 +2010,7 @@
       </c>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2063,7 +2058,7 @@
       </c>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2111,7 +2106,7 @@
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2159,7 +2154,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2206,7 +2201,7 @@
         <v>0.48834872000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2253,7 +2248,7 @@
         <v>0.49182337999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2301,7 +2296,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
+  <sortState ref="A2:G26">
     <sortCondition ref="A2:A26"/>
   </sortState>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -2311,14 +2306,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5ED2E9-4995-4142-9C6A-A45A1FCE9277}">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
@@ -2331,7 +2326,7 @@
     <col min="12" max="12" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -2378,1858 +2373,1907 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="18" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="B2" s="18">
-        <v>190.65</v>
+        <v>218.69</v>
+      </c>
+      <c r="C2" s="18">
+        <v>157.30000000000001</v>
       </c>
       <c r="D2" s="18">
-        <v>-79.7</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0.11</v>
+        <v>-84.2</v>
+      </c>
+      <c r="E2" s="22">
+        <f>1.4285714/5</f>
+        <v>0.28571427999999999</v>
       </c>
       <c r="F2" s="18">
-        <v>20</v>
+        <f>150*2/5</f>
+        <v>60</v>
+      </c>
+      <c r="G2" s="18">
+        <v>237.05141</v>
       </c>
       <c r="H2" s="18">
         <v>19</v>
       </c>
       <c r="I2" s="18">
+        <v>-43.875064999999999</v>
+      </c>
+      <c r="J2" s="18">
+        <v>11.483824</v>
+      </c>
+      <c r="K2" s="18">
+        <v>1.4041425000000001</v>
+      </c>
+      <c r="L2" s="18">
+        <v>1.3858367</v>
+      </c>
+      <c r="M2" s="18">
+        <v>95.571838</v>
+      </c>
+      <c r="N2" s="18">
+        <v>1.7993281000000001</v>
+      </c>
+      <c r="O2" s="18">
+        <v>0.71849030000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="18" customFormat="1">
+      <c r="A3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="18">
+        <v>190.65</v>
+      </c>
+      <c r="D3" s="18">
+        <v>-79.7</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.11</v>
+      </c>
+      <c r="F3" s="18">
+        <v>20</v>
+      </c>
+      <c r="H3" s="18">
+        <v>19</v>
+      </c>
+      <c r="I3" s="18">
         <v>-39.619731999999999</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J3" s="18">
         <v>9.3609790999999998</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K3" s="18">
         <v>2.7551519999999998</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L3" s="18">
         <v>0.81189221</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M3" s="18">
         <v>85.151961999999997</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N3" s="18">
         <v>6.8047395000000002</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O3" s="18">
         <v>0.59347665000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="4" spans="1:15" s="18" customFormat="1">
+      <c r="A4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B4" s="18">
         <v>221.17</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C4" s="18">
         <v>290.61876999999998</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D4" s="18">
         <v>-80.8</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E4" s="18">
         <v>0.115</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F4" s="18">
         <v>66</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G4" s="18">
         <v>322.90994000000001</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H4" s="18">
         <v>28</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I4" s="18">
         <v>-36.442383</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J4" s="18">
         <v>13.514893000000001</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K4" s="18">
         <v>1.438177</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L4" s="18">
         <v>0.79911911000000002</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M4" s="18">
         <v>88.261229999999998</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N4" s="18">
         <v>1.0355132</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O4" s="18">
         <v>0.57183998999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="5" spans="1:15" s="18" customFormat="1">
+      <c r="A5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B5" s="18">
         <v>113.3</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C5" s="20">
         <v>352.2</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D5" s="18">
         <v>-77.8</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E5" s="18">
         <v>0.12</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F5" s="18">
         <v>44</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G5" s="18">
         <v>112.28400000000001</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H5" s="18">
         <v>27</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I5" s="18">
         <v>-42.543179000000002</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J5" s="18">
         <v>5.7356286000000001</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K5" s="18">
         <v>1.8085282</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L5" s="18">
         <v>0.89354270999999996</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M5" s="18">
         <v>69.642792</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N5" s="18">
         <v>5.1916485000000003</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O5" s="18">
         <v>0.66167927000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="6" spans="1:15" s="18" customFormat="1">
+      <c r="A6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B6" s="18">
         <v>232.38</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C6" s="18">
         <v>298.52823000000001</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D6" s="18">
         <v>-80.8</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E6" s="18">
         <v>0.1</v>
-      </c>
-      <c r="F5" s="18">
-        <v>47</v>
-      </c>
-      <c r="G5" s="18">
-        <v>211.70285000000001</v>
-      </c>
-      <c r="H5" s="18">
-        <v>23</v>
-      </c>
-      <c r="I5" s="18">
-        <v>-36.331176999999997</v>
-      </c>
-      <c r="J5" s="18">
-        <v>11.886599</v>
-      </c>
-      <c r="K5" s="18">
-        <v>4.165349</v>
-      </c>
-      <c r="L5" s="18">
-        <v>0.79941410000000002</v>
-      </c>
-      <c r="M5" s="18">
-        <v>88.821410999999998</v>
-      </c>
-      <c r="N5" s="18">
-        <v>1.5470556</v>
-      </c>
-      <c r="O5" s="18">
-        <v>0.55476165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="18">
-        <v>197.41</v>
-      </c>
-      <c r="C6" s="18">
-        <v>280.72586000000001</v>
-      </c>
-      <c r="D6" s="18">
-        <v>-73.3</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0.2</v>
       </c>
       <c r="F6" s="18">
         <v>47</v>
       </c>
       <c r="G6" s="18">
+        <v>211.70285000000001</v>
+      </c>
+      <c r="H6" s="18">
+        <v>23</v>
+      </c>
+      <c r="I6" s="18">
+        <v>-36.331176999999997</v>
+      </c>
+      <c r="J6" s="18">
+        <v>11.886599</v>
+      </c>
+      <c r="K6" s="18">
+        <v>4.165349</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0.79941410000000002</v>
+      </c>
+      <c r="M6" s="18">
+        <v>88.821410999999998</v>
+      </c>
+      <c r="N6" s="18">
+        <v>1.5470556</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0.55476165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="18" customFormat="1">
+      <c r="A7" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="18">
+        <v>197.41</v>
+      </c>
+      <c r="C7" s="18">
+        <v>280.72586000000001</v>
+      </c>
+      <c r="D7" s="18">
+        <v>-73.3</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>47</v>
+      </c>
+      <c r="G7" s="18">
         <v>296.61489999999998</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H7" s="18">
         <v>42</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I7" s="18">
         <v>-44.254944000000002</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J7" s="18">
         <v>11.805845</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K7" s="18">
         <v>2.4062809999999999</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L7" s="18">
         <v>0.80949956000000001</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M7" s="18">
         <v>82.951233000000002</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N7" s="18">
         <v>1.0642685000000001</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O7" s="18">
         <v>0.56898873999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="8" spans="1:15" s="18" customFormat="1">
+      <c r="A8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B8" s="18">
         <v>139.30000000000001</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C8" s="18">
         <v>415.73079999999999</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D8" s="18">
         <v>-70.099999999999994</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E8" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F8" s="18">
         <v>24</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G8" s="18">
         <v>201.16138000000001</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H8" s="18">
         <v>15</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I8" s="18">
         <v>-40.335312000000002</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J8" s="18">
         <v>13.985975</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K8" s="18">
         <v>2.5602713000000001</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L8" s="18">
         <v>1.4494309000000001</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M8" s="18">
         <v>91.238631999999996</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N8" s="18">
         <v>8.2427454000000004</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O8" s="18">
         <v>0.86524445000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>202.29</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>158.07556</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>-68.900000000000006</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>0.115</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>37</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <v>184.61600000000001</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <v>22</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>-48.977252999999997</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>4.5810966000000004</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>2.1702205999999999</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>1.5214976</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>97.622269000000003</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>5.7889328000000004</v>
       </c>
-      <c r="O8">
+      <c r="O9">
         <v>0.85316652000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>207.27</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>316.06155000000001</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>-81.400000000000006</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>0.105</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>41</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="2">
         <v>213.309</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="2">
         <v>27</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>-50.140174999999999</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>5.1576781</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>2.7507891999999998</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>0.88926917000000005</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>81.268105000000006</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>5.8173222999999998</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>0.64996606000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>235.57</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>280.5806</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-80.099999999999994</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>0.11</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>47</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>222.70599999999999</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>22</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>-35.127121000000002</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>6.4073009000000001</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>6.5909951999999994E-2</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>0.84741306000000005</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>92.683273</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>1.0517590999999999</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>0.49006506999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>227.1</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>241.41922</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>-82.9</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>0.105</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>60</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>231.72</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>23</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>-39.284668000000003</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>6.4916977999999999</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>4.4341974000000004</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>0.75465643000000004</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>92.202147999999994</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>4.2019862999999997</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>0.53890948999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>266.73</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>214.5172</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-80.099999999999994</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>0.13</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>47</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>292.33999999999997</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>28</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>-39.324283999999999</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>8.7714213999999995</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>2.1873825</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>0.77613807000000001</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>94.377990999999994</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>1.3580869</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>0.56789034999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="14" spans="1:15" s="18" customFormat="1">
+      <c r="A14" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B14" s="18">
         <v>212.57</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C14" s="18">
         <v>202.13461000000001</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D14" s="18">
         <v>-72.099999999999994</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E14" s="18">
         <v>0.11</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F14" s="18">
         <v>106</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G14" s="18">
         <v>292.88997999999998</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H14" s="18">
         <v>20</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I14" s="18">
         <v>-25.688870999999999</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J14" s="18">
         <v>8.4602976000000005</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K14" s="18">
         <v>3.9872071999999998</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L14" s="18">
         <v>0.90735531000000003</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M14" s="18">
         <v>77.996002000000004</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N14" s="18">
         <v>5.5169115</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O14" s="18">
         <v>0.57443237000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="15" spans="1:15" s="18" customFormat="1">
+      <c r="A15" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B15" s="18">
         <v>164.01</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C15" s="18">
         <v>206.98662999999999</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D15" s="18">
         <v>-70.2</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E15" s="18">
         <v>0.105</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F15" s="18">
         <v>104</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G15" s="18">
         <v>311.35120000000001</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H15" s="18">
         <v>17</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I15" s="18">
         <v>-38.071907000000003</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J15" s="18">
         <v>8.8641299999999994</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K15" s="18">
         <v>1.5171532999999999</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L15" s="18">
         <v>0.75615847000000003</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M15" s="18">
         <v>91.538703999999996</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N15" s="18">
         <v>6.4641055999999999</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O15" s="18">
         <v>0.51184761999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="16" spans="1:15" s="18" customFormat="1">
+      <c r="A16" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B16" s="18">
         <v>224.71</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C16" s="18">
         <v>262.19353999999998</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E16" s="18">
         <v>7.5000002999999996E-2</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F16" s="18">
         <v>23</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G16" s="18">
         <v>163.83775</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H16" s="18">
         <v>18</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I16" s="18">
         <v>-46.224327000000002</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J16" s="18">
         <v>8.3105840999999998</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K16" s="18">
         <v>2.5113897000000001</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L16" s="18">
         <v>0.78991628000000003</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M16" s="18">
         <v>88.552207999999993</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N16" s="18">
         <v>7.6095147000000001</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O16" s="18">
         <v>0.58191037000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="17" spans="1:15" s="18" customFormat="1">
+      <c r="A17" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B17" s="18">
         <v>166.07</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C17" s="18">
         <v>260.40237000000002</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D17" s="18">
         <v>-72.5</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E17" s="18">
         <v>5.5E-2</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F17" s="18">
         <v>18</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G17" s="18">
         <v>215.73828</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H17" s="18">
         <v>13</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I17" s="18">
         <v>-59.297545999999997</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J17" s="18">
         <v>9.9468373999999997</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K17" s="18">
         <v>0.38751312999999998</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L17" s="18">
         <v>1.2508926</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M17" s="18">
         <v>97.536072000000004</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N17" s="18">
         <v>7.5757174000000003</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O17" s="18">
         <v>0.82531016999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="18" spans="1:15" s="18" customFormat="1">
+      <c r="A18" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B18" s="18">
         <v>220.18</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C18" s="18">
         <v>297.90868999999998</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D18" s="18">
         <v>-77.599999999999994</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E18" s="18">
         <v>5.0000001000000002E-2</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F18" s="18">
         <v>32</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G18" s="18">
         <v>220.16276999999999</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H18" s="18">
         <v>9</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I18" s="18">
         <v>-39.663761000000001</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J18" s="18">
         <v>6.3567472</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K18" s="18">
         <v>2.4091524999999998</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L18" s="18">
         <v>1.3155774</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M18" s="18">
         <v>98.593200999999993</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O18" s="18">
         <v>0.84459209000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>259.58</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>223.90289000000001</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>-92.5</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>0.13500001</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F19" s="2">
         <v>22</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>190.53</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H19" s="2">
         <v>32</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>-45.514755000000001</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>6.6397867000000002</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>1.0167406999999999</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>0.80346835000000005</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>94.556503000000006</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>1.0841966999999999</v>
       </c>
-      <c r="O18">
+      <c r="O19">
         <v>0.48122132000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>196.25</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>292.02539000000002</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>-75.900000000000006</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <v>47</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <v>336.07400000000001</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H20" s="2">
         <v>24</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>-36.129288000000003</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>8.2432727999999997</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <v>3.1927485</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <v>0.74085540000000005</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>94.723038000000003</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <v>1.0816994</v>
       </c>
-      <c r="O19">
+      <c r="O20">
         <v>0.47553778000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2">
         <v>152.57</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>354.23647999999997</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>-83.6</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
         <v>41</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="2">
         <v>159.14699999999999</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H21" s="2">
         <v>32</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>-41.683781000000003</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>6.9612379000000004</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <v>1.4509540000000001</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>0.75107312000000004</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>85.84272</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>13.537774000000001</v>
       </c>
-      <c r="O20">
+      <c r="O21">
         <v>0.49321570999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="2">
         <v>193.32</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>265.97537</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>-79.8</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="2">
         <v>0.16500001</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="2">
         <v>43</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G22" s="2">
         <v>247.53100000000001</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H22" s="2">
         <v>36</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>-40.762732999999997</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>6.7836537000000003</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>0.81302302999999998</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>0.71206480000000005</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>91.421913000000004</v>
       </c>
-      <c r="N21">
+      <c r="N22">
         <v>2.0240626000000002</v>
       </c>
-      <c r="O21">
+      <c r="O22">
         <v>0.49431533</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="2">
         <v>313.41000000000003</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>241.20328000000001</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>-77.099999999999994</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>0.13</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
         <v>46</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G23" s="2">
         <v>288.70699999999999</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H23" s="2">
         <v>26</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>-38.712589000000001</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>8.9558668000000008</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>1.6507761000000001</v>
       </c>
-      <c r="L22">
+      <c r="L23">
         <v>0.71140384999999995</v>
       </c>
-      <c r="M22">
+      <c r="M23">
         <v>93.125434999999996</v>
       </c>
-      <c r="N22">
+      <c r="N23">
         <v>1.0291705</v>
       </c>
-      <c r="O22">
+      <c r="O23">
         <v>0.49753416</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <v>274.07</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>239.26616999999999</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>-78.099999999999994</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>0.17</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
         <v>24</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="2">
         <v>213.31200000000001</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="2">
         <v>41</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>-48.796295000000001</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>9.1260680999999995</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>2.6423192000000002</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <v>0.74281973000000001</v>
       </c>
-      <c r="M23">
+      <c r="M24">
         <v>94.999908000000005</v>
       </c>
-      <c r="N23">
+      <c r="N24">
         <v>1.1623809000000001</v>
       </c>
-      <c r="O23">
+      <c r="O24">
         <v>0.47582802000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <v>164.84</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>358.87554999999998</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>-81.2</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <v>0.12</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <v>62</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="2">
         <v>202.339</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H25" s="2">
         <v>24</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>-34.621284000000003</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>8.5305700000000009</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>1.9793242</v>
       </c>
-      <c r="L24">
+      <c r="L25">
         <v>0.72134805000000002</v>
       </c>
-      <c r="M24">
+      <c r="M25">
         <v>74.355170999999999</v>
       </c>
-      <c r="N24">
+      <c r="N25">
         <v>6.5697140999999997</v>
       </c>
-      <c r="O24">
+      <c r="O25">
         <v>0.51225233000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2">
         <v>210.39</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>321.15656000000001</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>-73.5</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>4.5000001999999997E-2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>80</v>
-      </c>
-      <c r="G25" s="2">
-        <v>257.13200000000001</v>
-      </c>
-      <c r="H25" s="2">
-        <v>17</v>
-      </c>
-      <c r="I25">
-        <v>-37.697296000000001</v>
-      </c>
-      <c r="J25">
-        <v>5.5155950000000002</v>
-      </c>
-      <c r="K25">
-        <v>7.3196778</v>
-      </c>
-      <c r="L25">
-        <v>0.72452616999999997</v>
-      </c>
-      <c r="M25">
-        <v>74.898223999999999</v>
-      </c>
-      <c r="N25">
-        <v>25.560026000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.49937176999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="2">
-        <v>148.53</v>
-      </c>
-      <c r="C26">
-        <v>293.51056</v>
-      </c>
-      <c r="D26">
-        <v>-76.8</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.13</v>
       </c>
       <c r="F26" s="2">
         <v>80</v>
       </c>
       <c r="G26" s="2">
+        <v>257.13200000000001</v>
+      </c>
+      <c r="H26" s="2">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <v>-37.697296000000001</v>
+      </c>
+      <c r="J26">
+        <v>5.5155950000000002</v>
+      </c>
+      <c r="K26">
+        <v>7.3196778</v>
+      </c>
+      <c r="L26">
+        <v>0.72452616999999997</v>
+      </c>
+      <c r="M26">
+        <v>74.898223999999999</v>
+      </c>
+      <c r="N26">
+        <v>25.560026000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.49937176999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2">
+        <v>148.53</v>
+      </c>
+      <c r="C27">
+        <v>293.51056</v>
+      </c>
+      <c r="D27">
+        <v>-76.8</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="F27" s="2">
+        <v>80</v>
+      </c>
+      <c r="G27" s="2">
         <v>281.947</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H27" s="2">
         <v>25</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>-33.922615</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>13.77636</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>2.3880951000000001</v>
       </c>
-      <c r="L26">
+      <c r="L27">
         <v>0.63901472000000004</v>
       </c>
-      <c r="M26">
+      <c r="M27">
         <v>81.011238000000006</v>
       </c>
-      <c r="N26">
+      <c r="N27">
         <v>3.5884708999999999</v>
       </c>
-      <c r="O26">
+      <c r="O27">
         <v>0.49176442999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28" s="2">
         <v>212.7</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C28" s="21">
         <v>368.91</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>-78.400000000000006</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <v>0.125</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F28" s="2">
         <v>26</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G28" s="2">
         <v>175.61</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H28" s="2">
         <v>33</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>-40.376064</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>8.8487883000000007</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>1.9141710999999999</v>
       </c>
-      <c r="L27">
+      <c r="L28">
         <v>0.69983041000000001</v>
       </c>
-      <c r="M27">
+      <c r="M28">
         <v>84.596039000000005</v>
       </c>
-      <c r="N27">
+      <c r="N28">
         <v>1.8587921999999999</v>
       </c>
-      <c r="O27">
+      <c r="O28">
         <v>0.4896163</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2">
         <v>241.58</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>171.04381000000001</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>-76.8</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>0.16500001</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F29" s="2">
         <v>42</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G29" s="2">
         <v>271.56700000000001</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H29" s="2">
         <v>37</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>-39.795326000000003</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>6.4082885000000003</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>4.0826998000000003</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <v>0.70485496999999997</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>82.275795000000002</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>2.2859972000000002</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>0.49029613</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="2">
         <v>141.91999999999999</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>222.77667</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>-69.900000000000006</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="2">
         <v>0.12</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F30" s="2">
         <v>86</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G30" s="2">
         <v>294.62700000000001</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H30" s="2">
         <v>25</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <v>-34.806728</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>13.624667000000001</v>
       </c>
-      <c r="K29">
+      <c r="K30">
         <v>1.04501</v>
       </c>
-      <c r="L29">
+      <c r="L30">
         <v>0.73882705000000004</v>
       </c>
-      <c r="M29">
+      <c r="M30">
         <v>70.359711000000004</v>
       </c>
-      <c r="N29">
+      <c r="N30">
         <v>7.7379341000000004</v>
       </c>
-      <c r="O29">
+      <c r="O30">
         <v>0.59779000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="2">
         <v>201.5</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>277.28070000000002</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>-78.599999999999994</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
         <v>0.16500001</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F31" s="2">
         <v>24</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G31" s="2">
         <v>217.51300000000001</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H31" s="2">
         <v>38</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>-38.669342</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>7.5647874000000002</v>
       </c>
-      <c r="K30">
+      <c r="K31">
         <v>1.0543366999999999</v>
       </c>
-      <c r="L30">
+      <c r="L31">
         <v>0.71291285999999998</v>
       </c>
-      <c r="M30">
+      <c r="M31">
         <v>84.323639</v>
       </c>
-      <c r="N30">
+      <c r="N31">
         <v>1.8348024000000001</v>
       </c>
-      <c r="O30">
+      <c r="O31">
         <v>0.50083601</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B32" s="2">
         <v>194.96</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>135.68088</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>-67.099999999999994</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="2">
         <v>0.185</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F32" s="2">
         <v>67</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G32" s="2">
         <v>309.21100000000001</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H32" s="2">
         <v>36</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>-38.879227</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <v>8.8807840000000002</v>
       </c>
-      <c r="K31">
+      <c r="K32">
         <v>1.3511207000000001</v>
       </c>
-      <c r="L31">
+      <c r="L32">
         <v>0.79911757000000005</v>
       </c>
-      <c r="M31">
+      <c r="M32">
         <v>82.549880999999999</v>
       </c>
-      <c r="N31">
+      <c r="N32">
         <v>5.1212543999999998</v>
       </c>
-      <c r="O31">
+      <c r="O32">
         <v>0.55786555999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B33" s="2">
         <v>188.18</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>177.50998999999999</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>-72.2</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="2">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <v>50</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G33" s="2">
         <v>254.43299999999999</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H33" s="2">
         <v>43</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>-40.263824</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>8.6558542000000003</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <v>2.4420519000000001</v>
       </c>
-      <c r="L32">
+      <c r="L33">
         <v>0.67542237000000005</v>
       </c>
-      <c r="M32">
+      <c r="M33">
         <v>85.124663999999996</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <v>2.3059459000000002</v>
       </c>
-      <c r="O32">
+      <c r="O33">
         <v>0.49852701999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B34" s="2">
         <v>220.57</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>265.59359999999998</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>-77.5</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="2">
         <v>0.13500001</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F34" s="2">
         <v>20</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G34" s="2">
         <v>207.65700000000001</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H34" s="2">
         <v>40</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>-41.155247000000003</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>5.8113049999999999</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <v>2.0773543999999999</v>
       </c>
-      <c r="L33">
+      <c r="L34">
         <v>0.74891889</v>
       </c>
-      <c r="M33">
+      <c r="M34">
         <v>78.508765999999994</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <v>2.0648906</v>
       </c>
-      <c r="O33">
+      <c r="O34">
         <v>0.57144821000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+    <row r="35" spans="1:15" s="18" customFormat="1">
+      <c r="A35" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B35" s="18">
         <v>264.66000000000003</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C35" s="18">
         <v>170.94954000000001</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D35" s="18">
         <v>-68</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E35" s="18">
         <v>7.9999998000000003E-2</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F35" s="18">
         <v>84</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G35" s="18">
         <v>300.92813000000001</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H35" s="18">
         <v>19</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I35" s="18">
         <v>-39.755446999999997</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J35" s="18">
         <v>8.0350789999999996</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K35" s="18">
         <v>1.9747832999999999</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L35" s="18">
         <v>0.76417816000000005</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M35" s="18">
         <v>77.627762000000004</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N35" s="18">
         <v>1.4724124999999999</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O35" s="18">
         <v>0.59975749</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B36" s="2">
         <v>263.39</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>261.0376</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>-75.400000000000006</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E36" s="2">
         <v>8.5000001000000006E-2</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F36" s="2">
         <v>65</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G36" s="2">
         <v>263.05799999999999</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H36" s="2">
         <v>21</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>-42.859783</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <v>7.4942203000000003</v>
       </c>
-      <c r="K35">
+      <c r="K36">
         <v>3.9355433</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <v>0.72846991000000005</v>
       </c>
-      <c r="M35">
+      <c r="M36">
         <v>80.548996000000002</v>
       </c>
-      <c r="N35">
+      <c r="N36">
         <v>5.1238251000000004</v>
       </c>
-      <c r="O35">
+      <c r="O36">
         <v>0.55619596999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B37" s="2">
         <v>208.82</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>290.61658</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>-79.7</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E37" s="2">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F37" s="2">
         <v>46</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G37" s="2">
         <v>263.53199999999998</v>
-      </c>
-      <c r="H36" s="2">
-        <v>25</v>
-      </c>
-      <c r="I36">
-        <v>-45.707496999999996</v>
-      </c>
-      <c r="J36">
-        <v>5.8672113000000001</v>
-      </c>
-      <c r="K36">
-        <v>1.0932461</v>
-      </c>
-      <c r="L36">
-        <v>0.78430116000000005</v>
-      </c>
-      <c r="M36">
-        <v>84.281715000000005</v>
-      </c>
-      <c r="N36">
-        <v>3.6337348999999999</v>
-      </c>
-      <c r="O36">
-        <v>0.61743218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="2">
-        <v>171.99</v>
-      </c>
-      <c r="C37">
-        <v>364.55565999999999</v>
-      </c>
-      <c r="D37">
-        <v>-80.3</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="F37" s="2">
-        <v>23</v>
-      </c>
-      <c r="G37" s="2">
-        <v>221.73</v>
       </c>
       <c r="H37" s="2">
         <v>25</v>
       </c>
       <c r="I37">
+        <v>-45.707496999999996</v>
+      </c>
+      <c r="J37">
+        <v>5.8672113000000001</v>
+      </c>
+      <c r="K37">
+        <v>1.0932461</v>
+      </c>
+      <c r="L37">
+        <v>0.78430116000000005</v>
+      </c>
+      <c r="M37">
+        <v>84.281715000000005</v>
+      </c>
+      <c r="N37">
+        <v>3.6337348999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.61743218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="2">
+        <v>171.99</v>
+      </c>
+      <c r="C38">
+        <v>364.55565999999999</v>
+      </c>
+      <c r="D38">
+        <v>-80.3</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="F38" s="2">
+        <v>23</v>
+      </c>
+      <c r="G38" s="2">
+        <v>221.73</v>
+      </c>
+      <c r="H38" s="2">
+        <v>25</v>
+      </c>
+      <c r="I38">
         <v>-42.265796999999999</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>7.5388903999999997</v>
       </c>
-      <c r="K37">
+      <c r="K38">
         <v>1.8346161999999999</v>
       </c>
-      <c r="L37">
+      <c r="L38">
         <v>0.71438341999999999</v>
       </c>
-      <c r="M37">
+      <c r="M38">
         <v>79.558280999999994</v>
       </c>
-      <c r="N37">
+      <c r="N38">
         <v>6.7106770999999998</v>
       </c>
-      <c r="O37">
+      <c r="O38">
         <v>0.49909267000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="E40" s="15"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="E41" s="15"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:15">
       <c r="E42" s="15"/>
-      <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:15">
       <c r="E43" s="15"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="1:15">
       <c r="E44" s="15"/>
       <c r="J44" s="6"/>
-      <c r="N44" s="5"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:15">
       <c r="E45" s="15"/>
       <c r="J45" s="6"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="E46" s="15"/>
       <c r="J46" s="6"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="E47" s="15"/>
       <c r="J47" s="6"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="E48" s="15"/>
       <c r="J48" s="6"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:14">
       <c r="E49" s="15"/>
       <c r="J49" s="6"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:14">
       <c r="E50" s="15"/>
+      <c r="J50" s="6"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:14">
       <c r="E51" s="15"/>
-      <c r="J51" s="7"/>
-      <c r="N51" s="8"/>
-    </row>
-    <row r="52" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="5:14">
       <c r="E52" s="15"/>
       <c r="J52" s="7"/>
       <c r="N52" s="8"/>
     </row>
-    <row r="53" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E53" s="16"/>
+    <row r="53" spans="5:14">
+      <c r="E53" s="15"/>
       <c r="J53" s="7"/>
-    </row>
-    <row r="54" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" spans="5:14">
       <c r="E54" s="16"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:14">
       <c r="E55" s="16"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:14">
       <c r="E56" s="16"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:14">
       <c r="E57" s="16"/>
-    </row>
-    <row r="58" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E58" s="17"/>
-      <c r="J58" s="6"/>
-    </row>
-    <row r="59" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="5:14">
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="5:14">
       <c r="E59" s="17"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E60" s="16"/>
+    <row r="60" spans="5:14">
+      <c r="E60" s="17"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:14">
       <c r="E61" s="16"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:14">
       <c r="E62" s="16"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:14">
       <c r="E63" s="16"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:14">
       <c r="E64" s="16"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:10">
       <c r="E65" s="16"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:10">
       <c r="E66" s="16"/>
       <c r="J66" s="6"/>
     </row>
-    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:10">
       <c r="E67" s="16"/>
-    </row>
-    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="5:10">
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:10">
       <c r="E69" s="16"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="5:10">
       <c r="E70" s="16"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:10">
       <c r="E71" s="16"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E72" s="13"/>
+    <row r="72" spans="5:10">
+      <c r="E72" s="16"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:10">
       <c r="E73" s="13"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:10">
       <c r="E74" s="13"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:10">
       <c r="E75" s="13"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:10">
       <c r="E76" s="13"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:10">
+      <c r="E77" s="13"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="J78" s="8"/>
-    </row>
-    <row r="79" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:10">
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="5:10">
       <c r="J79" s="8"/>
     </row>
+    <row r="80" spans="5:10">
+      <c r="J80" s="8"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O37">
-    <sortCondition ref="A2:A37"/>
+  <sortState ref="A3:O38">
+    <sortCondition ref="A3:A38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4243,7 +4287,7 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
@@ -4251,7 +4295,7 @@
     <col min="11" max="11" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -4300,7 +4344,7 @@
       <c r="R1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -4347,7 +4391,7 @@
         <v>0.5977093</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -4394,7 +4438,7 @@
         <v>0.59654492000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -4441,7 +4485,7 @@
         <v>0.56278992000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -4488,7 +4532,7 @@
         <v>0.58671635</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -4535,7 +4579,7 @@
         <v>0.56502903000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -4582,7 +4626,7 @@
         <v>0.56004774999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -4629,7 +4673,7 @@
         <v>0.62344164000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -4676,7 +4720,7 @@
         <v>0.49724322999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -4723,7 +4767,7 @@
         <v>0.46850097000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -4770,7 +4814,7 @@
         <v>0.49660429</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -4817,7 +4861,7 @@
         <v>0.56720000999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -4864,7 +4908,7 @@
         <v>0.58416741999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -4911,7 +4955,7 @@
         <v>0.55606829999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -4958,7 +5002,7 @@
         <v>0.55019545999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -5005,7 +5049,7 @@
         <v>0.49628061000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -5052,7 +5096,7 @@
         <v>0.48260286000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -5099,7 +5143,7 @@
         <v>0.44246398999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -5146,7 +5190,7 @@
         <v>0.49197914999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -5193,7 +5237,7 @@
         <v>0.47053555000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -5240,7 +5284,7 @@
         <v>0.47810071999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -5287,91 +5331,91 @@
         <v>0.56702220000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="G26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="F27" s="6"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="F28" s="6"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="F29" s="6"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="F30" s="6"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="F31" s="6"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="F32" s="6"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:10">
       <c r="F33" s="6"/>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:10">
       <c r="F34" s="6"/>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:10">
       <c r="F35" s="6"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:10">
       <c r="F36" s="6"/>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:10">
       <c r="F37" s="6"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:10">
       <c r="F38" s="6"/>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:10">
       <c r="F39" s="6"/>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:10">
       <c r="F40" s="6"/>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:10">
       <c r="F41" s="14"/>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:10">
       <c r="F42" s="6"/>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:10">
       <c r="F43" s="6"/>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:10">
       <c r="F44" s="6"/>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:10">
       <c r="F45" s="6"/>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:10">
       <c r="F46" s="6"/>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:10">
       <c r="F47" s="6"/>
       <c r="J47" s="11"/>
     </row>
@@ -5388,7 +5432,7 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
@@ -5396,7 +5440,7 @@
     <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -5445,7 +5489,7 @@
       <c r="R1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="9" t="s">
         <v>56</v>
       </c>
@@ -5492,7 +5536,7 @@
         <v>0.49956051000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -5539,7 +5583,7 @@
         <v>0.46765195999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="9" t="s">
         <v>58</v>
       </c>
@@ -5586,7 +5630,7 @@
         <v>0.79000998</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="9" t="s">
         <v>59</v>
       </c>
@@ -5633,7 +5677,7 @@
         <v>0.47573575000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="9" t="s">
         <v>60</v>
       </c>
@@ -5680,7 +5724,7 @@
         <v>2.9087350000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="9" t="s">
         <v>61</v>
       </c>
@@ -5727,7 +5771,7 @@
         <v>0.56917923999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="9" t="s">
         <v>62</v>
       </c>
@@ -5774,7 +5818,7 @@
         <v>0.48840876999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="9" t="s">
         <v>63</v>
       </c>
@@ -5815,7 +5859,7 @@
         <v>0.69653737999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="9" t="s">
         <v>64</v>
       </c>
@@ -5862,7 +5906,7 @@
         <v>0.48815673999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="9" t="s">
         <v>65</v>
       </c>
@@ -5909,7 +5953,7 @@
         <v>2.9085200000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="9" t="s">
         <v>66</v>
       </c>
@@ -5956,7 +6000,7 @@
         <v>0.89398873000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="9" t="s">
         <v>67</v>
       </c>
@@ -6003,7 +6047,7 @@
         <v>0.79386752999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="9" t="s">
         <v>68</v>
       </c>
@@ -6050,7 +6094,7 @@
         <v>0.49486360000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="9" t="s">
         <v>69</v>
       </c>
@@ -6097,7 +6141,7 @@
         <v>0.48899266000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="9" t="s">
         <v>70</v>
       </c>
@@ -6138,7 +6182,7 @@
         <v>0.58514065000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="9" t="s">
         <v>71</v>
       </c>
@@ -6185,7 +6229,7 @@
         <v>0.55019724000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="9" t="s">
         <v>72</v>
       </c>
@@ -6232,7 +6276,7 @@
         <v>0.52351999000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="9" t="s">
         <v>73</v>
       </c>
@@ -6279,7 +6323,7 @@
         <v>0.48728888999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
@@ -6326,7 +6370,7 @@
         <v>0.57531922999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="9" t="s">
         <v>75</v>
       </c>
@@ -6373,7 +6417,7 @@
         <v>0.58453332999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="9" t="s">
         <v>76</v>
       </c>
@@ -6420,7 +6464,7 @@
         <v>0.57946872999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="9" t="s">
         <v>77</v>
       </c>
@@ -6467,7 +6511,7 @@
         <v>0.46405437999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="9" t="s">
         <v>78</v>
       </c>
@@ -6514,7 +6558,7 @@
         <v>0.49857336000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="9" t="s">
         <v>79</v>
       </c>
@@ -6561,123 +6605,123 @@
         <v>0.47425145000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="B30" s="9"/>
       <c r="C30" s="6"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="B31" s="9"/>
       <c r="C31" s="6"/>
       <c r="D31" s="4"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="B32" s="9"/>
       <c r="C32" s="6"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6">
       <c r="B33" s="9"/>
       <c r="C33" s="6"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6">
       <c r="B34" s="9"/>
       <c r="C34" s="6"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6">
       <c r="B35" s="9"/>
       <c r="C35" s="6"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6">
       <c r="B36" s="9"/>
       <c r="C36" s="6"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6">
       <c r="B37" s="9"/>
       <c r="C37" s="10"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6">
       <c r="B38" s="9"/>
       <c r="C38" s="7"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6">
       <c r="B39" s="9"/>
       <c r="C39" s="7"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6">
       <c r="B40" s="9"/>
       <c r="C40" s="7"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6">
       <c r="B41" s="9"/>
       <c r="C41" s="7"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6">
       <c r="B42" s="9"/>
       <c r="C42" s="7"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6">
       <c r="B43" s="9"/>
       <c r="C43" s="7"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6">
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6">
       <c r="B45" s="9"/>
       <c r="C45" s="6"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6">
       <c r="B46" s="9"/>
       <c r="C46" s="6"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6">
       <c r="B47" s="9"/>
       <c r="C47" s="6"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6">
       <c r="B48" s="9"/>
       <c r="C48" s="6"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6">
       <c r="B49" s="9"/>
       <c r="C49" s="6"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6">
       <c r="B50" s="9"/>
       <c r="C50" s="6"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6">
       <c r="B51" s="9"/>
       <c r="C51" s="6"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6">
       <c r="B52" s="9"/>
       <c r="C52" s="6"/>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6">
       <c r="B53" s="9"/>
       <c r="C53" s="6"/>
       <c r="F53" s="11"/>
@@ -6695,13 +6739,13 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -6748,7 +6792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6795,7 +6839,7 @@
         <v>0.49783172999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -6842,7 +6886,7 @@
         <v>0.45711580000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -6889,7 +6933,7 @@
         <v>0.49245</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -6936,7 +6980,7 @@
         <v>0.49690162999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -6983,7 +7027,7 @@
         <v>0.56075609000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -7030,7 +7074,7 @@
         <v>0.55698597000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -7077,7 +7121,7 @@
         <v>0.49425605</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -7124,7 +7168,7 @@
         <v>0.58855771999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -7171,7 +7215,7 @@
         <v>0.49637571000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -7218,7 +7262,7 @@
         <v>0.63622414999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -7265,7 +7309,7 @@
         <v>0.49983781999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -7312,7 +7356,7 @@
         <v>0.58609109999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -7359,7 +7403,7 @@
         <v>0.69811838999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -7406,7 +7450,7 @@
         <v>0.57982409000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -7453,7 +7497,7 @@
         <v>0.66065954999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -7491,7 +7535,7 @@
         <v>2.4448742999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -7538,7 +7582,7 @@
         <v>0.57910514000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -7585,7 +7629,7 @@
         <v>0.56549238999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -7641,16 +7685,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC90569-C691-D141-B225-19B80C078FF5}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -7697,7 +7741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -7744,7 +7788,7 @@
         <v>0.47606738999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -7791,7 +7835,7 @@
         <v>0.49238825000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -7838,7 +7882,7 @@
         <v>0.63563042999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -7885,7 +7929,7 @@
         <v>0.56045484999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -7932,7 +7976,7 @@
         <v>0.50660664</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -7979,7 +8023,7 @@
         <v>0.59606636000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -8026,7 +8070,7 @@
         <v>0.66418712999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -8073,7 +8117,7 @@
         <v>0.57111603</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -8120,7 +8164,7 @@
         <v>0.52201933</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -8167,7 +8211,7 @@
         <v>0.46713209</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -8214,7 +8258,7 @@
         <v>0.54394138000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -8261,7 +8305,7 @@
         <v>0.57961339000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -8308,7 +8352,7 @@
         <v>0.65088438999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -8355,7 +8399,7 @@
         <v>0.66975658999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -8402,7 +8446,7 @@
         <v>0.62675035000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -8449,7 +8493,7 @@
         <v>0.58664382000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -8496,7 +8540,7 @@
         <v>0.56652396999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -8543,7 +8587,7 @@
         <v>0.4800297</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>152</v>
       </c>
